--- a/Topography/LaJara_TopoSurvey/LongProfile_Analysis.xlsx
+++ b/Topography/LaJara_TopoSurvey/LongProfile_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DFD94-DD3C-4A01-9A18-579A8E70D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0F257-9141-44C4-9FB2-D9539ACB1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{03481A16-4B90-474B-945E-1D75A00D1B70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{03481A16-4B90-474B-945E-1D75A00D1B70}"/>
   </bookViews>
   <sheets>
     <sheet name="TP1 (3&amp;25)" sheetId="4" r:id="rId1"/>
@@ -608,9 +608,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,6 +621,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3199,6 +3199,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-96E7-4774-956D-5A8411B275E3}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11167,84 +11170,84 @@
       <c r="C13" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>2722.69</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>2722.4960000000001</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>13</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <f>B17-1</f>
         <v>2721.4960000000001</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>13</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>2722.652</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>13</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>2722.5129999999999</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>13</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <f>B22-1</f>
         <v>2721.5129999999999</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11797,36 +11800,36 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>23</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2723.3890000000001</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>23</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>2723.1850000000004</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>23</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <f>B19-1</f>
         <v>2722.1850000000004</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11936,13 +11939,13 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>41</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>2724.7139999999995</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11960,36 +11963,36 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>41</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>2724.88</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>41</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>2724.6550000000002</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>41</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <f>B13-1</f>
         <v>2723.6550000000002</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12174,36 +12177,36 @@
       <c r="C15" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>10.15</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>2733.665</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>10.15</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2733.5459999999998</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>10.15</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <f>B18-1</f>
         <v>2732.5459999999998</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12363,36 +12366,36 @@
       <c r="C15" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>14.600000000000001</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>2733.998</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>14.600000000000001</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2733.8110000000001</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>14.600000000000001</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <f>B18-1</f>
         <v>2732.8110000000001</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12575,36 +12578,36 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>31.4</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>2735.6690000000003</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>31.4</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>2735.3720000000003</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>31.4</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <f>B18-1</f>
         <v>2734.3720000000003</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12772,84 +12775,84 @@
       <c r="C16" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>2738.5079999999998</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>2738.3150000000001</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <f>B20-1</f>
         <v>2737.3150000000001</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>2738.4739999999997</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>2738.2259999999997</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="23">
         <v>56.599999999999994</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <f>B26-1</f>
         <v>2737.2259999999997</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Topography/LaJara_TopoSurvey/LongProfile_Analysis.xlsx
+++ b/Topography/LaJara_TopoSurvey/LongProfile_Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB0F257-9141-44C4-9FB2-D9539ACB1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE50AA-A7AD-4E13-A8C2-B75FD12A8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{03481A16-4B90-474B-945E-1D75A00D1B70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="10" xr2:uid="{03481A16-4B90-474B-945E-1D75A00D1B70}"/>
   </bookViews>
   <sheets>
     <sheet name="TP1 (3&amp;25)" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Downstream" sheetId="1" r:id="rId8"/>
     <sheet name="Upstream" sheetId="2" r:id="rId9"/>
     <sheet name="RMSE" sheetId="3" r:id="rId10"/>
+    <sheet name="Full reach slope" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
   <si>
     <t>Distance</t>
   </si>
@@ -442,13 +443,32 @@
   <si>
     <t>ALL OTHER SEASONS</t>
   </si>
+  <si>
+    <t xml:space="preserve">Distance (m) </t>
+  </si>
+  <si>
+    <t>Downstream</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upstream </t>
+  </si>
+  <si>
+    <t>Down S</t>
+  </si>
+  <si>
+    <t>Up S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -562,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,7 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,22 +615,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -620,7 +630,7 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -713,7 +723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -802,7 +812,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1028,7 +1038,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1246,7 +1256,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1284,7 +1294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054315983"/>
@@ -1368,7 +1378,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1406,7 +1416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052055759"/>
@@ -1454,7 +1464,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1530,7 +1540,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1699,7 +1709,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1918,7 +1928,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2077,7 +2087,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2115,7 +2125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054318383"/>
@@ -2207,7 +2217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2245,7 +2255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1436196047"/>
@@ -2293,7 +2303,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2369,7 +2379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2496,7 +2506,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2685,7 +2695,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2844,7 +2854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2882,7 +2892,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054318383"/>
@@ -2974,7 +2984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3012,7 +3022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1436196047"/>
@@ -3060,7 +3070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3141,7 +3151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3252,7 +3262,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3510,7 +3520,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3740,7 +3750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3778,7 +3788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054315983"/>
@@ -3862,7 +3872,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3900,7 +3910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052055759"/>
@@ -3948,7 +3958,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4029,7 +4039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4140,7 +4150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4388,7 +4398,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4606,7 +4616,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4644,7 +4654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054315983"/>
@@ -4728,7 +4738,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4766,7 +4776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052055759"/>
@@ -4814,7 +4824,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4895,7 +4905,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5006,7 +5016,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5264,7 +5274,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5499,7 +5509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5537,7 +5547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054315983"/>
@@ -5621,7 +5631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5659,7 +5669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052055759"/>
@@ -5707,7 +5717,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5788,7 +5798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5877,7 +5887,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -6113,7 +6123,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -6324,7 +6334,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6362,7 +6372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1054315983"/>
@@ -6446,7 +6456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6484,7 +6494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052055759"/>
@@ -6532,7 +6542,1715 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t> Downstream</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24038888888888893"/>
+                  <c:y val="1.3472222222222222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Full reach slope'!$A$27:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>11.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Full reach slope'!$B$27:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>2722.4319999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2722.4919999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2722.4719999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2722.4869999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2722.5719999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2722.6169999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2722.587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2722.587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2722.5519999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2722.5789999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2722.5619999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2722.6519999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2722.6539999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2722.7789999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2722.6989999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2723.0039999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2723.0239999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2723.0789999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2723.0739999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2723.0039999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2723.0989999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2723.0489999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2723.1789999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2723.1889999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2723.1889999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2723.1689999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2723.1589999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2723.1489999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2723.1589999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2723.2389999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2723.2589999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2723.5189999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2723.4289999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2723.4489999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2723.4069999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2723.5189999999993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2723.6589999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2723.5789999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2723.7089999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2723.6689999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2723.7089999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2723.8189999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2723.8389999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2723.8389999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2723.8789999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2723.9239999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2723.8839999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2724.0789999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2724.1639999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2724.1839999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2724.2139999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2724.1939999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2724.2289999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2724.5539999999992</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2724.6239999999993</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2724.5539999999992</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2724.5839999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2724.5539999999992</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2724.5739999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2724.6039999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2724.6389999999992</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2724.6589999999992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2724.6439999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2724.6589999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2724.7439999999992</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2724.7489999999993</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2724.7439999999992</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2724.7139999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2724.7439999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BA7-4B2B-BE89-FEA46B30B582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931990016"/>
+        <c:axId val="931990496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931990016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931990496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="931990496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931990016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t> Upstream</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24038888888888893"/>
+                  <c:y val="1.3472222222222222E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Full reach slope'!$D$3:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Full reach slope'!$E$3:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>2732.8400000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2733.0300000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2732.9900000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2732.9450000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2733.0400000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2733.0900000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2733.1450000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2733.2100000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2733.2400000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2733.295000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2733.3300000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2733.3450000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2733.5850000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2733.5700000000011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2733.5950000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2733.565000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2733.7250000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2733.6150000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2733.7400000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2733.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2733.8750000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2733.8300000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2733.7650000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2733.8700000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2734.0350000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2734.0400000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2734.0350000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2734.1800000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2734.1150000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2734.1650000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2734.2850000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2734.3200000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2734.3450000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2734.380000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2734.4300000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2734.3950000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2734.545000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2734.8450000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2734.5750000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2734.5600000000009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2735.0100000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2735.0800000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2735.025000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2735.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2735.2300000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2735.1450000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2735.1600000000008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2735.3650000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2735.2700000000009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2735.2150000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2735.4600000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2735.4150000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2735.4600000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2735.4700000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2735.4800000000009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2736.1250000000009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2736.1150000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2736.0900000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2736.0350000000008</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2736.420000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2736.440000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2736.4300000000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2736.565000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2736.5150000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2736.7050000000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2736.6450000000009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2736.610000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2736.7650000000008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2736.7890000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2736.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2736.735000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2736.7600000000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2736.9150000000009</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2736.8200000000011</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2737.045000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2736.9650000000006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2737.1400000000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2737.1850000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2737.1800000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2737.1950000000006</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2737.4150000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2737.3400000000006</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2737.2500000000009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2737.4650000000006</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2737.4600000000009</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2737.6850000000009</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2737.6150000000007</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2737.7900000000009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2737.7600000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2737.7850000000008</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2737.8000000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2738.2050000000008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2738.2100000000009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2738.0800000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2738.0850000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8887-425C-8E4E-92EEBB07C516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931990016"/>
+        <c:axId val="931990496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931990016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931990496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="931990496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931990016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6823,6 +8541,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9920,6 +11718,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10732,10 +13562,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47728FC0-69F5-4C80-9212-8ED212828C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B4E79-1911-4F71-A175-59EA180B8371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10773,7 +13684,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10879,7 +13790,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11021,7 +13932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11035,14 +13946,14 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11053,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -11062,7 +13973,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10.700000000000003</v>
       </c>
@@ -11073,7 +13984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11.5</v>
       </c>
@@ -11084,7 +13995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>11.799999999999997</v>
       </c>
@@ -11095,7 +14006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>12.5</v>
       </c>
@@ -11104,18 +14015,18 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>2722.4719999999998</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13.5</v>
       </c>
@@ -11124,7 +14035,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -11133,7 +14044,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>14.5</v>
       </c>
@@ -11142,7 +14053,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -11151,7 +14062,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15.5</v>
       </c>
@@ -11160,7 +14071,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -11169,85 +14080,85 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>2722.69</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>2722.4960000000001</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>13</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <f>B17-1</f>
         <v>2721.4960000000001</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>2722.652</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>13</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>2722.5129999999999</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <f>B22-1</f>
         <v>2721.5129999999999</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11269,13 +14180,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>93</v>
       </c>
@@ -11285,37 +14196,37 @@
       <c r="D2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>2721.752</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2721.752</v>
       </c>
       <c r="D3" s="1">
         <f>B3-C3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f>SQRT(SUMSQ(D3:D24)/COUNTA(D3:D24))</f>
         <v>0.22320496084427999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>2721.848</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>2721.768</v>
       </c>
       <c r="D4" s="1">
@@ -11323,14 +14234,14 @@
         <v>7.999999999992724E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>2722.2820000000002</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>2722.3719999999994</v>
       </c>
       <c r="D5" s="1">
@@ -11339,14 +14250,14 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>2722.52</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2722.6829999999995</v>
       </c>
       <c r="D6" s="1">
@@ -11355,14 +14266,14 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>2723.422</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>2723.1169999999997</v>
       </c>
       <c r="D7" s="1">
@@ -11370,14 +14281,14 @@
         <v>0.30500000000029104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>2723.14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>2722.9949999999999</v>
       </c>
       <c r="D8" s="1">
@@ -11385,14 +14296,14 @@
         <v>0.14499999999998181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>2723.4479999999999</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2723.1850000000004</v>
       </c>
       <c r="D9" s="1">
@@ -11400,14 +14311,14 @@
         <v>0.26299999999946522</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>2723.817</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>2723.4550000000004</v>
       </c>
       <c r="D10" s="1">
@@ -11415,14 +14326,14 @@
         <v>0.36199999999962529</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>2724.067</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>2724.1790000000001</v>
       </c>
       <c r="D11" s="1">
@@ -11430,14 +14341,14 @@
         <v>-0.11200000000008004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>2724.1610000000001</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>2724.0150000000003</v>
       </c>
       <c r="D12" s="1">
@@ -11445,14 +14356,14 @@
         <v>0.14599999999973079</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>2724.817</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>2724.88</v>
       </c>
       <c r="D13" s="1">
@@ -11460,14 +14371,14 @@
         <v>-6.3000000000101863E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>2733.3449999999998</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>2733.5150000000008</v>
       </c>
       <c r="D14" s="1">
@@ -11475,14 +14386,14 @@
         <v>-0.17000000000098225</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>2733.011</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>2732.95</v>
       </c>
       <c r="D15" s="1">
@@ -11490,14 +14401,14 @@
         <v>6.1000000000149157E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>2733.5250000000001</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>2733.2149999999997</v>
       </c>
       <c r="D16" s="1">
@@ -11505,14 +14416,14 @@
         <v>0.31000000000040018</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>2733.7530000000002</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>2733.998</v>
       </c>
       <c r="D17" s="1">
@@ -11520,14 +14431,14 @@
         <v>-0.24499999999989086</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>2734.3629999999998</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>2734.527</v>
       </c>
       <c r="D18" s="1">
@@ -11535,14 +14446,14 @@
         <v>-0.16400000000021464</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>2735.297</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>2734.7939999999999</v>
       </c>
       <c r="D19" s="1">
@@ -11550,14 +14461,14 @@
         <v>0.50300000000015643</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>2735.4749999999999</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>2735.6690000000003</v>
       </c>
       <c r="D20" s="1">
@@ -11565,14 +14476,14 @@
         <v>-0.19400000000041473</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>2736.1239999999998</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>2736.2650000000003</v>
       </c>
       <c r="D21" s="1">
@@ -11580,14 +14491,14 @@
         <v>-0.14100000000053114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>2736.6129999999998</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>2736.6469999999999</v>
       </c>
       <c r="D22" s="1">
@@ -11595,14 +14506,14 @@
         <v>-3.4000000000105501E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>2736.3969999999999</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2736.7950000000005</v>
       </c>
       <c r="D23" s="1">
@@ -11610,14 +14521,14 @@
         <v>-0.39800000000059299</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>2737.114</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>2737.2450000000003</v>
       </c>
       <c r="D24" s="1">
@@ -11628,6 +14539,1431 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A8F44A-15FD-4D11-AC72-DB17420C26F2}">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2721.752</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2732.8400000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2721.7419999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2733.0300000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2721.7559999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2732.9900000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2721.7619999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2732.9450000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2721.732</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2733.0400000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2721.732</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2733.0900000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2721.7619999999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2733.1450000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2721.7819999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2733.2100000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2721.8069999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2733.2400000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2721.8819999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2733.295000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2721.962</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2733.3300000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2721.962</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2733.3450000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2722.0119999999997</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2733.5850000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2722.047</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2733.5700000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2722.0619999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2733.5950000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2722.0969999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2733.565000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2722.1519999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>2733.7250000000008</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f>1000*9.81*0.6*H19</f>
+        <v>515.61360000000002</v>
+      </c>
+      <c r="K19" s="1">
+        <f>AVERAGE(H19:H20)</f>
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2722.1319999999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13.200000000000003</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2733.6150000000007</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.1014</v>
+      </c>
+      <c r="I20" s="1">
+        <f>1000*9.81*0.6*H20</f>
+        <v>596.84040000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2722.1419999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2733.7400000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2722.2169999999996</v>
+      </c>
+      <c r="D22" s="1">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2733.880000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2722.1819999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2733.8750000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2722.2169999999996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2733.8300000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10.700000000000003</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2722.2919999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>15.299999999999997</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2733.7650000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2722.3419999999996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15.700000000000003</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2733.8700000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11.799999999999997</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2722.4319999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>16</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2734.0350000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2722.4919999999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>17</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2734.0400000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2722.4719999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2734.0350000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2722.4869999999996</v>
+      </c>
+      <c r="D30" s="1">
+        <v>18</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2734.1800000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2722.5719999999997</v>
+      </c>
+      <c r="D31" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2734.1150000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2722.6169999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>19</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2734.1650000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2722.587</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2734.2850000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2722.587</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E34" s="19">
+        <v>2734.3200000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2722.5519999999997</v>
+      </c>
+      <c r="D35" s="1">
+        <v>21</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2734.3450000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2722.5789999999997</v>
+      </c>
+      <c r="D36" s="1">
+        <v>22</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2734.380000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2722.5619999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>23</v>
+      </c>
+      <c r="E37" s="19">
+        <v>2734.4300000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2722.6519999999996</v>
+      </c>
+      <c r="D38" s="1">
+        <v>23.299999999999997</v>
+      </c>
+      <c r="E38" s="19">
+        <v>2734.3950000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2722.6539999999995</v>
+      </c>
+      <c r="D39" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="E39" s="19">
+        <v>2734.545000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2722.7789999999995</v>
+      </c>
+      <c r="D40" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="E40" s="19">
+        <v>2734.8450000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2722.6989999999996</v>
+      </c>
+      <c r="D41" s="1">
+        <v>25</v>
+      </c>
+      <c r="E41" s="19">
+        <v>2734.5750000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>19.299999999999997</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2723.0039999999995</v>
+      </c>
+      <c r="D42" s="1">
+        <v>25.299999999999997</v>
+      </c>
+      <c r="E42" s="19">
+        <v>2734.5600000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2723.0239999999994</v>
+      </c>
+      <c r="D43" s="1">
+        <v>26</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2735.0100000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>20</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2723.0789999999997</v>
+      </c>
+      <c r="D44" s="1">
+        <v>26.700000000000003</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2735.0800000000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2723.0739999999996</v>
+      </c>
+      <c r="D45" s="1">
+        <v>27</v>
+      </c>
+      <c r="E45" s="19">
+        <v>2735.025000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2723.0039999999995</v>
+      </c>
+      <c r="D46" s="1">
+        <v>27.1</v>
+      </c>
+      <c r="E46" s="19">
+        <v>2735.0000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2723.0989999999997</v>
+      </c>
+      <c r="D47" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="E47" s="19">
+        <v>2735.2300000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2723.0489999999995</v>
+      </c>
+      <c r="D48" s="1">
+        <v>28</v>
+      </c>
+      <c r="E48" s="19">
+        <v>2735.1450000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2723.1789999999996</v>
+      </c>
+      <c r="D49" s="1">
+        <v>29</v>
+      </c>
+      <c r="E49" s="19">
+        <v>2735.1600000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>22.715000000000003</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2723.1889999999994</v>
+      </c>
+      <c r="D50" s="1">
+        <v>29.200000000000003</v>
+      </c>
+      <c r="E50" s="19">
+        <v>2735.3650000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2723.1889999999994</v>
+      </c>
+      <c r="D51" s="1">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E51" s="19">
+        <v>2735.2700000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2723.1689999999994</v>
+      </c>
+      <c r="D52" s="1">
+        <v>30</v>
+      </c>
+      <c r="E52" s="19">
+        <v>2735.2150000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2723.1589999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="E53" s="19">
+        <v>2735.4600000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2723.1489999999994</v>
+      </c>
+      <c r="D54" s="1">
+        <v>31</v>
+      </c>
+      <c r="E54" s="19">
+        <v>2735.4150000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2723.1589999999997</v>
+      </c>
+      <c r="D55" s="1">
+        <v>32</v>
+      </c>
+      <c r="E55" s="19">
+        <v>2735.4600000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2723.2389999999996</v>
+      </c>
+      <c r="D56" s="1">
+        <v>33</v>
+      </c>
+      <c r="E56" s="19">
+        <v>2735.4700000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2723.2589999999996</v>
+      </c>
+      <c r="D57" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="E57" s="19">
+        <v>2735.4800000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2723.5189999999993</v>
+      </c>
+      <c r="D58" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="E58" s="19">
+        <v>2736.1250000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2723.4289999999996</v>
+      </c>
+      <c r="D59" s="1">
+        <v>35</v>
+      </c>
+      <c r="E59" s="19">
+        <v>2736.1150000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2723.4489999999996</v>
+      </c>
+      <c r="D60" s="1">
+        <v>36</v>
+      </c>
+      <c r="E60" s="19">
+        <v>2736.0900000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2723.4069999999997</v>
+      </c>
+      <c r="D61" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E61" s="19">
+        <v>2736.0350000000008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2723.5189999999993</v>
+      </c>
+      <c r="D62" s="1">
+        <v>37</v>
+      </c>
+      <c r="E62" s="19">
+        <v>2736.420000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>27.799999999999997</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2723.6589999999997</v>
+      </c>
+      <c r="D63" s="1">
+        <v>37.599999999999994</v>
+      </c>
+      <c r="E63" s="19">
+        <v>2736.440000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2723.5789999999997</v>
+      </c>
+      <c r="D64" s="1">
+        <v>38</v>
+      </c>
+      <c r="E64" s="19">
+        <v>2736.4300000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2723.7089999999994</v>
+      </c>
+      <c r="D65" s="1">
+        <v>39</v>
+      </c>
+      <c r="E65" s="19">
+        <v>2736.565000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>29</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2723.6689999999994</v>
+      </c>
+      <c r="D66" s="1">
+        <v>40</v>
+      </c>
+      <c r="E66" s="19">
+        <v>2736.5150000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2723.7089999999994</v>
+      </c>
+      <c r="D67" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E67" s="19">
+        <v>2736.7050000000008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2723.8189999999995</v>
+      </c>
+      <c r="D68" s="1">
+        <v>41</v>
+      </c>
+      <c r="E68" s="19">
+        <v>2736.6450000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2723.8389999999995</v>
+      </c>
+      <c r="D69" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="E69" s="19">
+        <v>2736.610000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>31</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2723.8389999999995</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42</v>
+      </c>
+      <c r="E70" s="19">
+        <v>2736.7650000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2723.8789999999995</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42.599999999999994</v>
+      </c>
+      <c r="E71" s="19">
+        <v>2736.7890000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>32</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2723.9239999999995</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43</v>
+      </c>
+      <c r="E72" s="19">
+        <v>2736.8000000000011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2723.8839999999996</v>
+      </c>
+      <c r="D73" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E73" s="19">
+        <v>2736.735000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2724.0789999999993</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44</v>
+      </c>
+      <c r="E74" s="19">
+        <v>2736.7600000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2724.1639999999993</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="E75" s="19">
+        <v>2736.9150000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>34</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2724.1839999999993</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="E76" s="19">
+        <v>2736.8200000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2724.2139999999995</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45.099999999999994</v>
+      </c>
+      <c r="E77" s="19">
+        <v>2737.045000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>35</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2724.1939999999995</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45.599999999999994</v>
+      </c>
+      <c r="E78" s="19">
+        <v>2736.9650000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2724.2289999999994</v>
+      </c>
+      <c r="D79" s="1">
+        <v>46</v>
+      </c>
+      <c r="E79" s="19">
+        <v>2737.1400000000008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>35.400000000000006</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2724.5539999999992</v>
+      </c>
+      <c r="D80" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="E80" s="19">
+        <v>2737.1850000000009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2724.6239999999993</v>
+      </c>
+      <c r="D81" s="1">
+        <v>47</v>
+      </c>
+      <c r="E81" s="19">
+        <v>2737.1800000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2724.5539999999992</v>
+      </c>
+      <c r="D82" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="E82" s="19">
+        <v>2737.1950000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2724.5839999999994</v>
+      </c>
+      <c r="D83" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="E83" s="19">
+        <v>2737.4150000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>36.900000000000006</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2724.5539999999992</v>
+      </c>
+      <c r="D84" s="1">
+        <v>48</v>
+      </c>
+      <c r="E84" s="19">
+        <v>2737.3400000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2724.5739999999996</v>
+      </c>
+      <c r="D85" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="E85" s="19">
+        <v>2737.2500000000009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2724.6039999999994</v>
+      </c>
+      <c r="D86" s="1">
+        <v>49</v>
+      </c>
+      <c r="E86" s="19">
+        <v>2737.4650000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>38</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2724.6389999999992</v>
+      </c>
+      <c r="D87" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="E87" s="19">
+        <v>2737.4600000000009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2724.6589999999992</v>
+      </c>
+      <c r="D88" s="1">
+        <v>49.900000000000006</v>
+      </c>
+      <c r="E88" s="19">
+        <v>2737.6850000000009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>39</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2724.6439999999993</v>
+      </c>
+      <c r="D89" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="E89" s="19">
+        <v>2737.6150000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2724.6589999999992</v>
+      </c>
+      <c r="D90" s="1">
+        <v>50.900000000000006</v>
+      </c>
+      <c r="E90" s="19">
+        <v>2737.7900000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2724.7439999999992</v>
+      </c>
+      <c r="D91" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="E91" s="19">
+        <v>2737.7600000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>40</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2724.7489999999993</v>
+      </c>
+      <c r="D92" s="1">
+        <v>52</v>
+      </c>
+      <c r="E92" s="19">
+        <v>2737.7850000000008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2724.7439999999992</v>
+      </c>
+      <c r="D93" s="1">
+        <v>52.599999999999994</v>
+      </c>
+      <c r="E93" s="19">
+        <v>2737.8000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>41</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2724.7139999999995</v>
+      </c>
+      <c r="D94" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="E94" s="19">
+        <v>2738.2050000000008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2724.7439999999992</v>
+      </c>
+      <c r="D95" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="E95" s="19">
+        <v>2738.2100000000009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="1">
+        <v>54</v>
+      </c>
+      <c r="E96" s="19">
+        <v>2738.0800000000008</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="E97" s="19">
+        <v>2738.0850000000009</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="1">
+        <v>55.099999999999994</v>
+      </c>
+      <c r="E98" s="19">
+        <v>2738.1100000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <v>55.900000000000006</v>
+      </c>
+      <c r="E99" s="19">
+        <v>2738.4050000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="E100" s="19">
+        <v>2738.3650000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="1">
+        <v>58</v>
+      </c>
+      <c r="E101" s="19">
+        <v>2738.190000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11639,14 +15975,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11657,183 +15993,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="1">
         <v>2723.0789999999997</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20.5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="1">
         <v>2723.0739999999996</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20.700000000000003</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="1">
         <v>2723.0989999999997</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>21.4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="1">
         <v>2723.0489999999995</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>21.6</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="1">
         <v>2723.1789999999996</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>22.715000000000003</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="1">
         <v>2723.1889999999994</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>23</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>2723.1689999999994</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>23.5</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="1">
         <v>2723.1589999999997</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="1">
         <v>2723.1489999999994</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>24.5</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="1">
         <v>2723.1589999999997</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>25</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="1">
         <v>2723.2389999999996</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>25.5</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="1">
         <v>2723.2589999999996</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>25.9</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="1">
         <v>2723.5189999999993</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>26.5</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="1">
         <v>2723.4289999999996</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>23</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>2723.3890000000001</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>23</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>2723.1850000000004</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>23</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <f>B19-1</f>
         <v>2722.1850000000004</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11853,12 +16189,12 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11869,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>38</v>
       </c>
@@ -11880,7 +16216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>38.5</v>
       </c>
@@ -11889,7 +16225,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>39</v>
       </c>
@@ -11900,7 +16236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>39.5</v>
       </c>
@@ -11911,7 +16247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>39.700000000000003</v>
       </c>
@@ -11920,7 +16256,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>40</v>
       </c>
@@ -11929,7 +16265,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>40.5</v>
       </c>
@@ -11938,18 +16274,18 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>41</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <v>2724.7139999999995</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>41.5</v>
       </c>
@@ -11957,51 +16293,51 @@
         <v>2724.7439999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>41</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>2724.88</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>41</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>2724.6550000000002</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>41</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <f>B13-1</f>
         <v>2723.6550000000002</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12020,13 +16356,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12037,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -12046,7 +16382,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -12055,7 +16391,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>8.2999999999999972</v>
       </c>
@@ -12067,7 +16403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -12076,7 +16412,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9.6000000000000014</v>
       </c>
@@ -12087,7 +16423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9.7999999999999972</v>
       </c>
@@ -12098,7 +16434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -12107,18 +16443,18 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10.149999999999999</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="1">
         <v>2733.53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -12127,7 +16463,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11.600000000000001</v>
       </c>
@@ -12136,7 +16472,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -12147,7 +16483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13.200000000000003</v>
       </c>
@@ -12158,7 +16494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13.5</v>
       </c>
@@ -12167,7 +16503,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13.600000000000001</v>
       </c>
@@ -12176,37 +16512,37 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>10.15</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>2733.665</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>10.15</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>2733.5459999999998</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>10.15</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <f>B18-1</f>
         <v>2732.5459999999998</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12224,13 +16560,13 @@
       <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12241,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -12250,7 +16586,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11.600000000000001</v>
       </c>
@@ -12259,7 +16595,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -12270,7 +16606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13.200000000000003</v>
       </c>
@@ -12281,7 +16617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13.5</v>
       </c>
@@ -12290,7 +16626,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13.600000000000001</v>
       </c>
@@ -12299,7 +16635,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -12308,18 +16644,18 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>14.600000000000001</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>2733.8300000000008</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15.299999999999997</v>
       </c>
@@ -12328,7 +16664,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>15.700000000000003</v>
       </c>
@@ -12337,7 +16673,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -12346,7 +16682,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -12355,47 +16691,47 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>14.600000000000001</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>2733.998</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>14.600000000000001</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>2733.8110000000001</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>14.600000000000001</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <f>B18-1</f>
         <v>2732.8110000000001</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12413,13 +16749,13 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12430,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -12439,7 +16775,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>29</v>
       </c>
@@ -12450,7 +16786,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>29.200000000000003</v>
       </c>
@@ -12459,7 +16795,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>29.700000000000003</v>
       </c>
@@ -12468,7 +16804,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>30</v>
       </c>
@@ -12477,7 +16813,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>30.5</v>
       </c>
@@ -12486,7 +16822,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -12495,18 +16831,18 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>31.4</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>2735.41</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>31.5</v>
       </c>
@@ -12517,7 +16853,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>31.700000000000003</v>
       </c>
@@ -12528,7 +16864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>32</v>
       </c>
@@ -12537,7 +16873,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>33</v>
       </c>
@@ -12546,7 +16882,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>33.5</v>
       </c>
@@ -12557,7 +16893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>34.5</v>
       </c>
@@ -12568,7 +16904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>35</v>
       </c>
@@ -12577,37 +16913,37 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>31.4</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="18">
         <v>2735.6690000000003</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>31.4</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>2735.3720000000003</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>31.4</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <f>B18-1</f>
         <v>2734.3720000000003</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12621,17 +16957,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9FF7D5-9BFB-4832-9E96-B5075923E10A}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12642,7 +16978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>52.599999999999994</v>
       </c>
@@ -12653,7 +16989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>53.2</v>
       </c>
@@ -12664,7 +17000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>53.7</v>
       </c>
@@ -12675,7 +17011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>54</v>
       </c>
@@ -12686,7 +17022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>54.5</v>
       </c>
@@ -12695,7 +17031,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>55.099999999999994</v>
       </c>
@@ -12706,7 +17042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>55.900000000000006</v>
       </c>
@@ -12717,7 +17053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>56.5</v>
       </c>
@@ -12726,18 +17062,18 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>56.599999999999994</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2738.3150000000001</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>56.900000000000006</v>
       </c>
@@ -12746,7 +17082,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>58</v>
       </c>
@@ -12754,105 +17090,105 @@
         <v>2738.190000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <v>2738.5079999999998</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>2738.3150000000001</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <f>B20-1</f>
         <v>2737.3150000000001</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="18">
         <v>2738.4739999999997</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>2738.2259999999997</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>56.599999999999994</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <f>B26-1</f>
         <v>2737.2259999999997</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12874,17 +17210,17 @@
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12907,7 +17243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12918,7 +17254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -12944,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.29999999999999716</v>
       </c>
@@ -12953,7 +17289,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -12964,7 +17300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -12999,7 +17335,7 @@
         <v>8.6000000000240107E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.5</v>
       </c>
@@ -13008,7 +17344,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -13017,7 +17353,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2.5</v>
       </c>
@@ -13032,7 +17368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3.1000000000000014</v>
       </c>
@@ -13058,9 +17394,8 @@
         <f>D10-E10</f>
         <v>-8.9999999999236024E-2</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3.5</v>
       </c>
@@ -13071,9 +17406,8 @@
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4.1000000000000014</v>
       </c>
@@ -13088,9 +17422,8 @@
         <f>D10-E12</f>
         <v>0.10700000000088039</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>4.5</v>
       </c>
@@ -13098,9 +17431,8 @@
         <v>2721.962</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -13110,9 +17442,8 @@
       <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5.5</v>
       </c>
@@ -13121,7 +17452,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -13130,7 +17461,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6.5</v>
       </c>
@@ -13139,7 +17470,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -13148,7 +17479,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>7.5</v>
       </c>
@@ -13157,7 +17488,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -13172,7 +17503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8.5</v>
       </c>
@@ -13199,7 +17530,7 @@
         <v>0.16299999999955617</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -13211,7 +17542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>9.5</v>
       </c>
@@ -13227,7 +17558,7 @@
         <v>4.0000000000418368E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -13236,7 +17567,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10.700000000000003</v>
       </c>
@@ -13247,7 +17578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>11.5</v>
       </c>
@@ -13258,7 +17589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>11.799999999999997</v>
       </c>
@@ -13269,7 +17600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>12.5</v>
       </c>
@@ -13278,7 +17609,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>13</v>
       </c>
@@ -13292,7 +17623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>13.5</v>
       </c>
@@ -13301,7 +17632,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>14</v>
       </c>
@@ -13310,7 +17641,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>14.5</v>
       </c>
@@ -13319,7 +17650,7 @@
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>15</v>
       </c>
@@ -13328,7 +17659,7 @@
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>15.5</v>
       </c>
@@ -13337,7 +17668,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -13346,7 +17677,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>16.5</v>
       </c>
@@ -13361,7 +17692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>17</v>
       </c>
@@ -13392,7 +17723,7 @@
         <v>-0.18599999999969441</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>17.5</v>
       </c>
@@ -13404,7 +17735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>18.299999999999997</v>
       </c>
@@ -13420,7 +17751,7 @@
         <v>0.49099999999998545</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>18.600000000000001</v>
       </c>
@@ -13429,7 +17760,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -13440,7 +17771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>19.299999999999997</v>
       </c>
@@ -13449,7 +17780,7 @@
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.5</v>
       </c>
@@ -13458,7 +17789,7 @@
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>20</v>
       </c>
@@ -13467,7 +17798,7 @@
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>20.5</v>
       </c>
@@ -13476,11 +17807,11 @@
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>20.700000000000003</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>2723.0039999999995</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -13511,7 +17842,7 @@
         <v>0.13600000000042201</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>20.700000000000003</v>
       </c>
@@ -13522,7 +17853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>21.4</v>
       </c>
@@ -13543,7 +17874,7 @@
         <v>539899.39599999995</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>21.6</v>
       </c>
@@ -13554,7 +17885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>22.715000000000003</v>
       </c>
@@ -13575,11 +17906,11 @@
         <v>539899.77899999998</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>23</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>2723.1889999999994</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -13601,7 +17932,7 @@
         <f>D51-E51</f>
         <v>0.26299999999946522</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <f>E51-B51</f>
         <v>-3.9999999989959178E-3</v>
       </c>
@@ -13610,7 +17941,7 @@
         <v>0.2590000000004693</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -13621,7 +17952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>23.5</v>
       </c>
@@ -13630,7 +17961,7 @@
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>24</v>
       </c>
@@ -13639,7 +17970,7 @@
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>24.5</v>
       </c>
@@ -13648,7 +17979,7 @@
       </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>25</v>
       </c>
@@ -13657,7 +17988,7 @@
       </c>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>25.5</v>
       </c>
@@ -13668,7 +17999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>25.9</v>
       </c>
@@ -13679,33 +18010,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>26.5</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>2723.4289999999996</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>2723.857</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>2723.4250000000002</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>475299.17099999997</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>539903.70600000001</v>
       </c>
       <c r="H59">
         <f>D59-E59</f>
         <v>0.431999999999789</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <f>E59-B59</f>
         <v>-3.9999999994506652E-3</v>
       </c>
@@ -13714,7 +18045,7 @@
         <v>0.431999999999789</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>26.9</v>
       </c>
@@ -13725,11 +18056,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>26.9</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>2723.4069999999997</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -13760,7 +18091,7 @@
         <v>0.41000000000030923</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>27.5</v>
       </c>
@@ -13771,7 +18102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>27.799999999999997</v>
       </c>
@@ -13782,7 +18113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>28</v>
       </c>
@@ -13793,7 +18124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>28.5</v>
       </c>
@@ -13804,7 +18135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>29</v>
       </c>
@@ -13818,7 +18149,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>29.5</v>
       </c>
@@ -13845,7 +18176,7 @@
         <v>-0.11200000000008004</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>30</v>
       </c>
@@ -13859,12 +18190,12 @@
       <c r="F68" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <f>E68-B67</f>
         <v>2.0000000000436557E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>30.5</v>
       </c>
@@ -13873,7 +18204,7 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>31</v>
       </c>
@@ -13894,7 +18225,7 @@
         <v>539906.85900000005</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>31.5</v>
       </c>
@@ -13905,7 +18236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>32</v>
       </c>
@@ -13914,7 +18245,7 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>32.5</v>
       </c>
@@ -13925,7 +18256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>33.200000000000003</v>
       </c>
@@ -13936,7 +18267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>33.5</v>
       </c>
@@ -13945,7 +18276,7 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>34</v>
       </c>
@@ -13954,11 +18285,11 @@
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>34.5</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>2724.2139999999995</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -13980,7 +18311,7 @@
         <f>D77-E77</f>
         <v>0.14599999999973079</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <f>E77-B77</f>
         <v>-0.19899999999915963</v>
       </c>
@@ -13989,7 +18320,7 @@
         <v>-5.2999999999428837E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>35</v>
       </c>
@@ -13998,7 +18329,7 @@
       </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>35.299999999999997</v>
       </c>
@@ -14009,7 +18340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>35.400000000000006</v>
       </c>
@@ -14020,7 +18351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>35.700000000000003</v>
       </c>
@@ -14031,7 +18362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>36.200000000000003</v>
       </c>
@@ -14040,7 +18371,7 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>36.5</v>
       </c>
@@ -14049,7 +18380,7 @@
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>36.900000000000006</v>
       </c>
@@ -14060,7 +18391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>37.200000000000003</v>
       </c>
@@ -14071,7 +18402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>37.5</v>
       </c>
@@ -14092,7 +18423,7 @@
         <v>539907.67000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>38</v>
       </c>
@@ -14103,7 +18434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>38.5</v>
       </c>
@@ -14112,7 +18443,7 @@
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>39</v>
       </c>
@@ -14123,7 +18454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>39.5</v>
       </c>
@@ -14144,7 +18475,7 @@
         <v>539907.44200000004</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>39.700000000000003</v>
       </c>
@@ -14153,7 +18484,7 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>40</v>
       </c>
@@ -14162,7 +18493,7 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>40.5</v>
       </c>
@@ -14174,11 +18505,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>41</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>2724.7139999999995</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -14200,7 +18531,7 @@
         <f>D94-E94</f>
         <v>0.16199999999980719</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="9">
         <f>E94-B94</f>
         <v>-5.8999999999286956E-2</v>
       </c>
@@ -14209,7 +18540,7 @@
         <v>0.10300000000052023</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>41.5</v>
       </c>
@@ -14231,7 +18562,7 @@
         <v>0.16600000000062209</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>48</v>
       </c>
@@ -14272,18 +18603,18 @@
       <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -14306,7 +18637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14329,7 +18660,7 @@
         <v>539944.49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -14354,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.70000000000000284</v>
       </c>
@@ -14363,7 +18694,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -14372,7 +18703,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -14393,7 +18724,7 @@
         <v>539947.03899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2.6000000000000014</v>
       </c>
@@ -14418,7 +18749,7 @@
         <v>-6.1000000000149157E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -14430,7 +18761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -14439,7 +18770,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -14448,7 +18779,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5.3999999999999986</v>
       </c>
@@ -14467,7 +18798,7 @@
         <v>539950.12800000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -14476,7 +18807,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -14485,7 +18816,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -14494,7 +18825,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8.2999999999999972</v>
       </c>
@@ -14503,7 +18834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -14512,7 +18843,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9.6000000000000014</v>
       </c>
@@ -14523,7 +18854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>9.7999999999999972</v>
       </c>
@@ -14534,7 +18865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -14543,7 +18874,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>10.149999999999999</v>
       </c>
@@ -14564,7 +18895,7 @@
         <v>539954.30599999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>11</v>
       </c>
@@ -14573,7 +18904,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>11.600000000000001</v>
       </c>
@@ -14582,7 +18913,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>12</v>
       </c>
@@ -14593,7 +18924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>13.200000000000003</v>
       </c>
@@ -14604,7 +18935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>13.5</v>
       </c>
@@ -14613,7 +18944,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>13.600000000000001</v>
       </c>
@@ -14622,7 +18953,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>14</v>
       </c>
@@ -14631,7 +18962,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>14.600000000000001</v>
       </c>
@@ -14666,7 +18997,7 @@
         <v>-7.7000000000680302E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>15.299999999999997</v>
       </c>
@@ -14675,7 +19006,7 @@
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>15.700000000000003</v>
       </c>
@@ -14684,7 +19015,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>16</v>
       </c>
@@ -14693,7 +19024,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>17</v>
       </c>
@@ -14706,7 +19037,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>17.200000000000003</v>
       </c>
@@ -14731,7 +19062,7 @@
         <v>0.63100000000031287</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -14750,7 +19081,7 @@
         <v>0.50300000000015643</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>18</v>
       </c>
@@ -14773,7 +19104,7 @@
         <v>539960.25899999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>18.5</v>
       </c>
@@ -14788,7 +19119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>19</v>
       </c>
@@ -14797,7 +19128,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>20</v>
       </c>
@@ -14806,7 +19137,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>20.5</v>
       </c>
@@ -14817,7 +19148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>21</v>
       </c>
@@ -14826,7 +19157,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>22</v>
       </c>
@@ -14835,7 +19166,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>23</v>
       </c>
@@ -14844,7 +19175,7 @@
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>23.299999999999997</v>
       </c>
@@ -14855,7 +19186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>23.6</v>
       </c>
@@ -14866,7 +19197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>24.6</v>
       </c>
@@ -14877,7 +19208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>25</v>
       </c>
@@ -14886,7 +19217,7 @@
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>25.299999999999997</v>
       </c>
@@ -14897,7 +19228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>26</v>
       </c>
@@ -14908,7 +19239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>26.700000000000003</v>
       </c>
@@ -14917,7 +19248,7 @@
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>27</v>
       </c>
@@ -14926,7 +19257,7 @@
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>27.1</v>
       </c>
@@ -14937,7 +19268,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>27.6</v>
       </c>
@@ -14948,7 +19279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>28</v>
       </c>
@@ -14957,7 +19288,7 @@
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>29</v>
       </c>
@@ -14968,7 +19299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>29.200000000000003</v>
       </c>
@@ -14977,7 +19308,7 @@
       </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>29.700000000000003</v>
       </c>
@@ -14986,7 +19317,7 @@
       </c>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>30</v>
       </c>
@@ -14995,7 +19326,7 @@
       </c>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>30.5</v>
       </c>
@@ -15004,7 +19335,7 @@
       </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>31</v>
       </c>
@@ -15016,7 +19347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>31.4</v>
       </c>
@@ -15041,7 +19372,7 @@
         <v>0.10299999999961074</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>31.5</v>
       </c>
@@ -15057,7 +19388,7 @@
         <v>0.19400000000041473</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>31.700000000000003</v>
       </c>
@@ -15076,7 +19407,7 @@
         <v>539967.52399999998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>32</v>
       </c>
@@ -15085,7 +19416,7 @@
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>33</v>
       </c>
@@ -15094,7 +19425,7 @@
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>33.5</v>
       </c>
@@ -15105,7 +19436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>34.5</v>
       </c>
@@ -15116,7 +19447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>35</v>
       </c>
@@ -15125,7 +19456,7 @@
       </c>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>36</v>
       </c>
@@ -15134,7 +19465,7 @@
       </c>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>35.799999999999997</v>
       </c>
@@ -15162,7 +19493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>36.200000000000003</v>
       </c>
@@ -15190,7 +19521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>36.900000000000006</v>
       </c>
@@ -15215,7 +19546,7 @@
         <v>0.39800000000059299</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>36.299999999999997</v>
       </c>
@@ -15224,7 +19555,7 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>37</v>
       </c>
@@ -15233,7 +19564,7 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>37.599999999999994</v>
       </c>
@@ -15242,7 +19573,7 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>38</v>
       </c>
@@ -15251,7 +19582,7 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>39</v>
       </c>
@@ -15260,7 +19591,7 @@
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>40</v>
       </c>
@@ -15269,7 +19600,7 @@
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>40.299999999999997</v>
       </c>
@@ -15278,7 +19609,7 @@
       </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>41</v>
       </c>
@@ -15287,7 +19618,7 @@
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>41.7</v>
       </c>
@@ -15298,7 +19629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42</v>
       </c>
@@ -15309,7 +19640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42.599999999999994</v>
       </c>
@@ -15330,7 +19661,7 @@
         <v>539971.95600000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43.400000000000006</v>
       </c>
@@ -15349,7 +19680,7 @@
         <v>539972.68000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43</v>
       </c>
@@ -15358,7 +19689,7 @@
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43.5</v>
       </c>
@@ -15367,7 +19698,7 @@
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44</v>
       </c>
@@ -15378,7 +19709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44.5</v>
       </c>
@@ -15389,7 +19720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44.8</v>
       </c>
@@ -15400,7 +19731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45.099999999999994</v>
       </c>
@@ -15409,7 +19740,7 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45.599999999999994</v>
       </c>
@@ -15420,7 +19751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>46</v>
       </c>
@@ -15431,7 +19762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>46.5</v>
       </c>
@@ -15458,7 +19789,7 @@
         <v>0.13100000000031287</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>47</v>
       </c>
@@ -15467,7 +19798,7 @@
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>47.2</v>
       </c>
@@ -15478,7 +19809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>47.5</v>
       </c>
@@ -15489,7 +19820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>48</v>
       </c>
@@ -15498,7 +19829,7 @@
       </c>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>48.2</v>
       </c>
@@ -15509,7 +19840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>49</v>
       </c>
@@ -15520,7 +19851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>49.5</v>
       </c>
@@ -15531,7 +19862,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>49.900000000000006</v>
       </c>
@@ -15542,7 +19873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>50.3</v>
       </c>
@@ -15553,7 +19884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>50.900000000000006</v>
       </c>
@@ -15562,7 +19893,7 @@
       </c>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>51.5</v>
       </c>
@@ -15571,7 +19902,7 @@
       </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>52</v>
       </c>
@@ -15580,7 +19911,7 @@
       </c>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>52.599999999999994</v>
       </c>
@@ -15591,7 +19922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>53.2</v>
       </c>
@@ -15602,7 +19933,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>53.7</v>
       </c>
@@ -15613,7 +19944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>54</v>
       </c>
@@ -15624,7 +19955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>54.5</v>
       </c>
@@ -15633,7 +19964,7 @@
       </c>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>55.099999999999994</v>
       </c>
@@ -15644,7 +19975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>55.900000000000006</v>
       </c>
@@ -15655,7 +19986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>56.5</v>
       </c>
@@ -15664,7 +19995,7 @@
       </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>56.599999999999994</v>
       </c>
@@ -15673,7 +20004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>56.900000000000006</v>
       </c>
@@ -15682,7 +20013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>58</v>
       </c>
